--- a/Documentacion/Listado casos de prueba.xlsx
+++ b/Documentacion/Listado casos de prueba.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucio\Desktop\Proyecto\SistemaRestaurante-master\Documentacion\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>Nro de caso de prueba</t>
   </si>
@@ -204,6 +199,18 @@
   </si>
   <si>
     <t>Emision del pre-ticket en base a las comandas de la mesa</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>Se prueba emision de informe final</t>
+  </si>
+  <si>
+    <t>Se selecciona un rango de fechas</t>
+  </si>
+  <si>
+    <t>Emision del informe de tickets</t>
   </si>
 </sst>
 </file>
@@ -551,7 +558,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -561,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,14 +802,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
